--- a/icd_compare/mapping_template.xlsx
+++ b/icd_compare/mapping_template.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Columns" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>left_column</t>
   </si>
@@ -28,25 +29,28 @@
     <t>is_key</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>fill_down</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -404,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,74 +427,82 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/icd_compare/mapping_template.xlsx
+++ b/icd_compare/mapping_template.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Columns" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="ValidationLists" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>left_column</t>
   </si>
@@ -32,25 +33,52 @@
     <t>fill_down</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Review the 'Columns' sheet.</t>
+  </si>
+  <si>
+    <t>Verify 'confirmed_right_column' matches the correct column in the Right file. Clear it if you don't want to compare that column.</t>
+  </si>
+  <si>
+    <t>Mark Key columns by entering 'Y' in 'is_key'. Keys are used to join rows.</t>
+  </si>
+  <si>
+    <t>Mark columns that need Forward Fill (e.g. parent IDs) by entering 'Y' in 'fill_down'. This fills empty cells with the value from the row above.</t>
+  </si>
+  <si>
+    <t>Save this workbook.</t>
+  </si>
+  <si>
+    <t>Run the diff script again with --mapping-confirmed.</t>
   </si>
 </sst>
 </file>
@@ -408,11 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -441,9 +474,6 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -455,43 +485,26 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>ValidationLists!$A$1:$A$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +512,81 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/icd_compare/mapping_template.xlsx
+++ b/icd_compare/mapping_template.xlsx
@@ -1,116 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Columns" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
-    <sheet name="ValidationLists" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Columns" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>left_column</t>
-  </si>
-  <si>
-    <t>suggested_right_column</t>
-  </si>
-  <si>
-    <t>confirmed_right_column</t>
-  </si>
-  <si>
-    <t>is_key</t>
-  </si>
-  <si>
-    <t>fill_down</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Step 4</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Review the 'Columns' sheet.</t>
-  </si>
-  <si>
-    <t>Verify 'confirmed_right_column' matches the correct column in the Right file. Clear it if you don't want to compare that column.</t>
-  </si>
-  <si>
-    <t>Mark Key columns by entering 'Y' in 'is_key'. Keys are used to join rows.</t>
-  </si>
-  <si>
-    <t>Mark columns that need Forward Fill (e.g. parent IDs) by entering 'Y' in 'fill_down'. This fills empty cells with the value from the row above.</t>
-  </si>
-  <si>
-    <t>Save this workbook.</t>
-  </si>
-  <si>
-    <t>Run the diff script again with --mapping-confirmed.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -118,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,161 +408,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>left_column</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>suggested_right_column</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>confirmed_right_column</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>is_key</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>fill_down</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>ValidationLists!$A$1:$A$2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>